--- a/970/33_Danh_Gia_Tieu_Chi.xlsx
+++ b/970/33_Danh_Gia_Tieu_Chi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\970\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\33-cdptw1-2\970\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
@@ -457,9 +457,7 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -524,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
